--- a/제출 정리_ver2.xlsx
+++ b/제출 정리_ver2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\limky\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hadongjun/level1-image-classification-level1-recsys-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF6D419E-AB05-4F95-A2D5-4A500CA61AC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3803B76F-D9CF-4C44-9F2C-C3369E7A3D96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="3855" windowWidth="35865" windowHeight="23535" xr2:uid="{CB573D9B-27DD-4E74-8C50-48C228C7FA2F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CB573D9B-27DD-4E74-8C50-48C228C7FA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>f1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>Cross-Entropy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LargeCentercrop / colorjitter / RR / RP / RH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +155,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF424242"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -196,7 +206,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -217,6 +227,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,22 +545,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313A1DBC-AB63-4E2A-B72E-25C2396F57E6}">
-  <dimension ref="B2:J8"/>
+  <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D21" sqref="D21:D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="18.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="18.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.875" style="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="25.5" customHeight="1">
@@ -751,6 +764,64 @@
       </c>
       <c r="J8" s="5">
         <v>67.206299999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="20">
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>32</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.62390000000000001</v>
+      </c>
+      <c r="J9" s="7">
+        <v>72.603200000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="20">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.66979999999999995</v>
+      </c>
+      <c r="J10" s="7">
+        <v>74.603200000000001</v>
       </c>
     </row>
   </sheetData>
